--- a/cp1/FB-05 Sapozhnyk, FB-05 Karas lab 1/Частота букв без пробілів.xlsx
+++ b/cp1/FB-05 Sapozhnyk, FB-05 Karas lab 1/Частота букв без пробілів.xlsx
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07883</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01967</v>
+        <v>0.01668</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04279</v>
+        <v>0.04274</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02147</v>
+        <v>0.01605</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03363</v>
+        <v>0.03022</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08498</v>
+        <v>0.08111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.00285</v>
+        <v>0.00325</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01096</v>
+        <v>0.01008</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -558,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01456</v>
+        <v>0.01832</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.06637</v>
+        <v>0.06494999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -574,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01817</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01216</v>
+        <v>0.01026</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -590,7 +590,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.04159</v>
+        <v>0.03395</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0524</v>
+        <v>0.05152</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.03559</v>
+        <v>0.03218</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -614,7 +614,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.06321</v>
+        <v>0.06619</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.11141</v>
+        <v>0.10849</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -630,7 +630,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.02658</v>
+        <v>0.03113</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -638,7 +638,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0467</v>
+        <v>0.04493</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -646,7 +646,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0455</v>
+        <v>0.0531</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -654,7 +654,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0539</v>
+        <v>0.06219</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -662,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.02823</v>
+        <v>0.03046</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -670,7 +670,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.00526</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -678,7 +678,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01036</v>
+        <v>0.00851</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -686,7 +686,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.00435</v>
+        <v>0.00341</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -694,7 +694,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.01156</v>
+        <v>0.01434</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -702,7 +702,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.00766</v>
+        <v>0.00856</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -710,7 +710,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.003</v>
+        <v>0.00342</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.00023</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.01877</v>
+        <v>0.02025</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -734,7 +734,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.00586</v>
+        <v>0.00583</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -742,7 +742,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.02162</v>
+        <v>0.02633</v>
       </c>
     </row>
   </sheetData>
